--- a/mini/python_playwright/output/万科_4.xlsx
+++ b/mini/python_playwright/output/万科_4.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>万科1月份销售金额同比增长19%</t>
+          <t>今年构建新的管理架构</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>王维波</t>
+          <t>陈雪;吴铭</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,32 +488,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2009-02-09</t>
+          <t>2006-03-22</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>万科A（000002、200002）公告，2009年1月份公司实现销售面积28.6万平方米，销售金额21.9亿元，分别比08年同期增长24.2%和18.6%。$$资料显示，公司从2008年8月份至12月份实现的销售面积和金额同比基本呈下降态势，但</t>
+          <t>万科(000002)总经理郁亮表示，今年万科要建立新的管理架构。他是在昨日万科2005年业绩发布媒体见面会上作此番表述的。$$据悉，万科现有的管理平台形成于2000年，强调的是专业化总部。但万科预计3年后其三大业务区域的各自规模都将与现在的集团规</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluXlxOQ6A6INHB-eKg6rZhc73-oASfCFRK8tHRXO7M0x4KVv_WKYsobfzjC10x_AoMHmonErpPdgTtWzt0LPd2eKMJHupgCeU-tkDI6plNCISOHsnp0taS4&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24SblpRI7inWvp6MP-ZwLNzbLbWvWmlrw00CmfnO3uUFSYIU1MxbihArYyYBHMspYZs40IFiqI7AfCyfZ09VzYN5Qfziwb52btLkCsmaPPTpA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>龙头公司周转压力也很大</t>
+          <t>G万科 动态估值仍具吸引力</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>龙跃</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,32 +523,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2009-01-07</t>
+          <t>2006-03-22</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>万科刚刚公布的销售数据显示，2008年公司累计销售面积为557.0万平方米，销售金额478.7亿元，同比分别减少9.2%和8.6%；保利地产去年的销售金额也突破200亿元大关。业内人士指出，虽然龙头公司去年的销售业绩较为亮丽，但资金回笼压力仍然较大。</t>
+          <t>在迪斯尼题材刺激下，地产板块近期持续活跃。在良好的市场氛围下，作为地产股的龙头品种，G万科最近也表现强劲。但业内人士指出，万科的走强与目前部分二线地产股（尤其是上海本地地产股）的活跃，有着本质的区别。$$后者的活跃在于朦胧题材的刺激，而前者的走强</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPLO3Y66ZFsV5-YTdQchhJCkzGbYSpCTZ-3qZ_uJH4KIGZh3VPlQu8x9Bua_ApQpiKyB0h1RNYqcbsFQQkCJSxkZtT1kQpPXZZLc_f9syz4g==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27yUxS4-OkCAyAJ2JndITQ-8H4v2Qyl-0AmBcHN48i8Cw3eFmhLY76QPKplsyv9q02jWtyUgaluIy8K7ytOXdgb3E2CdGnwki9hGIwJUNIqBw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>两地产龙头2008年底销量翘尾</t>
+          <t>转债市场缩水近半</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>吴铭林喆</t>
+          <t>黄宪奇</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,32 +558,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2009-01-06</t>
+          <t>2006-03-03</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>今日，房地产龙头企业万科A（000002）与保利地产（600048）双双公告了全年销售数据。整体而言，两公司2008年实现的销售业绩基本符合市场预期。其中，万科销售面积同比下滑近10%，但12月销售额环比增长50%以上。而保利地产全年销售面积则有同比近三</t>
+          <t>随着含转债上市公司股改进程的密集出炉，股改所带来的转债市场萎缩愈加显著。万科转2现已进入赎回程序，而雅戈转债即将到期，另外还有几只转债存在回售和赎回可能；转债市场近期的存量将不足1.5亿张，相对于股改初期的3亿张，已缩水过半。$$近期，转债市场</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPLO3Y66ZFsV5-YTdQchhJCkzGbYSpCTZ-3qZ_uJH4KIGZh3VPlQu8JoV9lW_e3SWHpn_5X5dTo0xUfnJffBrHKPeZ-v7VHss0VXbGE9kiaPlqCe7IKdzJ&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27yUxS4-OkCAyAJ2JndITQ-8H4v2Qyl-0AmBcHN48i8Cw3eFmhLY76QenIrEsnnUJrzim-1yqgYMsdpin3nK3otieHAc9-x_pQ9HEaRNycqyw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>“限产”难改商品房供求格局</t>
+          <t>万科北京朝万中心成立</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>林喆</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,32 +593,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2008-11-27</t>
+          <t>2006-03-02</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>随着万科等房地产企业纷纷对旗下部分项目暂停施工，“限产”继“降价”之后，成了中国楼市又一焦点。而且据称，绝大多数上规模的房地产公司都在考虑对明年开工计划进行“瘦身”。$$业内人士预计，房地产市场销售低迷，地产企业削减项目开工量以降低市场供应将渐渐</t>
+          <t>万科(000002、200002)受让60%股权的北京市朝万房地产开发中心昨日在京举行揭牌仪式。该公司的成立被认为是万科新一轮变革的开始，由此，资源整合将唱重头戏。$$据介绍，朝万中心系北京市朝阳城市建设综合开发公司通过存续分立方式新设的全民所有</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPLO3Y66ZFsV5-YTdQchhJCkzGbYSpCTZ-3qZ_uJH4KMHSQZx4AoAXlH7X1Z1GTIHs-iWCy8H5l75fy3738K_NBpi4Y-8l7oFxk7mtOxMPpQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27yUxS4-OkCAyAJ2JndITQ-8H4v2Qyl-0AmBcHN48i8Cw3eFmhLY76Q1l2cdUPnzDDvi4dxQljAoMGXVjfQ7onZ502djoT-PQTKzJRlBbAVUQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>万科挂牌转让南京恒邦股权</t>
+          <t>万科将行使“万科转2”赎回权</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,34 +628,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2008-11-13</t>
+          <t>2006-02-22</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>日前，南京恒邦房地产开发有限公司100%股权在南京产权交易中心挂牌转让，挂牌终止日期为2008年12月31日。按照恒邦拥有的南京东方名苑裙楼商业等资产价值，股权转让总价确定为2.268亿元。$$南京恒邦现有注册资本200万美元，其中万科地产（香港</t>
+          <t>G万科(000002、200002、126002)今日公告称，“万科转2”赎回日为2006年4月7日，公司将赎回在赎回日之前未转股的全部“万科转2”。$$赎回价格为按面值加当年利息(即101.375元/张，当年利息含税，个人和基金持有的“万科转2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPLO3Y66ZFsV5-YTdQchhJCkzGbYSpCTZ-3qZ_uJH4KMHSQZx4AoAXEQ62hPyKrhalPHv0dJWbYvrHn5mGBTjsNi1dZvYtbDxWk8QsepwlujCeN6wMBVVH&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27yUxS4-OkCAyAJ2JndITQ-8H4v2Qyl-0AmBcHN48i8C0B1JTORGx1P34CT8lfVTCO_dIOG8C60mW4unM1Lswi553BkjLea3yDz7B37QgoLEg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>中国海外  前10月销售228亿港元</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>杨志刚</t>
-        </is>
-      </c>
+          <t>■投资评级简报</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -663,32 +659,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2008-11-12</t>
+          <t>2006-02-06</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>被万科视为强劲对手的中国海外发展（00688.HK）没有因市场低迷而停下追赶的脚步。今年10月，公司房地产销售面积为21.8万平方米，实现销售额20.3亿港元，同比分别增长13.6%和20.1%，环比分别减少1.6%和增长3.5%。$$1—10月</t>
+          <t>G长园隐性资产提升价值$$东方证券研究所陈玉辉指出，长园新材是国内热缩材料和辐射加工领域的龙头企业，随着国内产业结构升级，热缩材料的主要应用领域，如电子和电器行业，将成为增速最高的领域之一，公司有望在下游需求拉动下进入新一轮高成长期。维持“增持</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPLO3Y66ZFsV5-YTdQchhJCkzGbYSpCTZ-3qZ_uJH4KMHSQZx4AoAXiy8qkTKW8NhnL874AjUkginZnAZfyK-uzV7gpAt-f8m5gdflyLO-nfuEFuUeD-3k&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27yUxS4-OkCAyAJ2JndITQ-8H4v2Qyl-0AmBcHN48i8C0B1JTORGx1Pw4sInTlsmRzBuVYN0a9j1WGXHXgXGk0NrfLuuYsHJpqcd4khEAN_WA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>房地产销售毛利整体下滑</t>
+          <t>中兴万科 基金重仓股龙头再舞</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>林喆</t>
+          <t>易非</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,32 +694,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2008-11-07</t>
+          <t>2006-01-25</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>一方面是地价上涨、建筑材料和劳动力成本上升，另一方面则是房价下行，受此影响，房地产行业的利润空间正在收缩，销售毛利率呈整体下滑态势。$$据WIND资讯的数据统计，前三季度，86家A股房地产公司平均销售毛利率为33%，比去年同期下降5.6个百分点，</t>
+          <t>谁是基金最重仓的股票？谁是基金加仓最坚决的股票？谁被基金最果断的从前二十大重仓股中剔除？通过天相对基金2005年四季度报告的重仓股数据统计，我们发现了基金经理们投资的“至爱”与他们抛售股票的代表。$$88只基金重仓G中兴$$根据天相的统计</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPLO3Y66ZFsV5-YTdQchhJCkzGbYSpCTZ-3qZ_uJH4KMHSQZx4AoAX4WR_pKGlyrhsW98V-j_HF3FACIs-uGfmfmNMVYbG1UbmK_3LB6lW_A==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph254r7ZJU6FLunqGOqa4zI0FsW8yihfIwMbcYXK1cAPEoNWMBnzIfX2vDSZpDGKE61cbsyiyAXHGanpzn0gbilcrfxjrNCGHl6bSxLjvWsKmLQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QFII重仓哪些股票</t>
+          <t>万科3.9亿并购朝万房产</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -733,32 +729,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2008-10-31</t>
+          <t>2006-01-19</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>陆续公布的三季报显示，万科、海螺水泥、中国铝业等处于周期性行业的公司受到QFII青睐，被众多QFII重仓持有。在二季度末，万科、海螺水泥就是QFII的十大重仓股之一，三季度，QFII加强了这种偏好。$$万科在三季度被QFII大举增持，瑞士信贷、摩</t>
+          <t>G万科(000002、200002、126002)在北京房地产市场又有新突破。公司今日公告称，北京市朝阳区国资委与公司于1月18日签署协议，将所持有的北京市朝万房地产开发中心的60%国有产权以及与该等产权相对应的股东权益转让予万科，转让价格为38900.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltVc5Rm2U1sBrpuqRvvA4moiMS8_f0UQk8aI_rI830PWQqFTB7MROBb82HNRrFcSxKsy92iKhjjWzn7Ez0rC3dmpZVQohF-N7-Ljoe0Fgxf7tYg9sJTR-rs&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph254r7ZJU6FLunqGOqa4zI0FsW8yihfIwMbcYXK1cAPEoNWMBnzIfX2vi-P84zo3YmXGdCwMwmKIF8MxvzIwCoG5aq5QtmNC787PUSBMCaUgqA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>万科  三季度销售面积同比降三成</t>
+          <t>短期整理不改向上趋势</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>林喆</t>
+          <t>徐海洋</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -768,32 +764,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2008-10-29</t>
+          <t>2006-01-12</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>万科A(000002)昨日公布的三季报显示，1-9月份，公司共实现营业收入225.4亿元，净利润22.8亿元，分别较去年同期增长59.1%和18.8%。其中，第三季度，实现净利润2.15亿元，同比下降13.42%。万科同时决定，在中期下调开竣工面积的基础</t>
+          <t>2006年的第一根阴线暂缓了行情上行的脚步。虽然元旦后的强势“五连阳”已经有效激活了市场热情，但指数在1223.56点前期高点触电般回落的走势，也唤起了投资者警觉的神经，毕竟，五年熊市的影响难以短期内消除。$$本质:价值重估掀动行情$$</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltVc5Rm2U1sBrpuqRvvA4moiMS8_f0UQk8aI_rI830PWQqFTB7MROBbfEJLLPFYn29mw5bYYS-8OlMoIoFR1_pyhLAAXS_1f4YVHqx4_hkV9Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph254r7ZJU6FLunqGOqa4zI0FsW8yihfIwMbcYXK1cAPEoNWMBnzIfX2vnLKCT_4nJbAByyhPWeaCgNmnYlQbqPNl_AvFzscwuIeFCpcO3W8-jA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>万科再度调减开发规模</t>
+          <t>万科借力境外资本推进战略调整</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>林喆吴铭万晶</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -803,27 +799,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2008-10-28</t>
+          <t>2005-12-20</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>今日，万科A（000002）、保利地产（600048）、金地集团（600383）、万通地产（600246）、中华企业（600675）等房地产公司公布了三季报，从中看出地产公司业绩分化趋势明显，并且第三季度净利润增速放缓。$$1-9月，保利地产和万</t>
+          <t>万科(000002、200002)今日公告称，决定将全资附属公司永达中国投资有限公司持有的沈阳万科永达房地产开发有限公司83%股权中的51%股权，及上海万科房地产集团有限公司持有的无锡万科房地产有限公司40%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltVc5Rm2U1sBrpuqRvvA4moiMS8_f0UQk8aI_rI830PWQqFTB7MROBbJjTmVoAmAS9-gbvEwlaj_Da9KBP082XKjwIuH9Lr6lDGpMAAx5eBWzbzTim9KWU_&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph254r7ZJU6FLunqGOqa4zI0FsW8yihfIwMbcYXK1cAPEoHuYPfsy7pZ14IubqXVqN84Npk4-ovCbmn7-MZZdGWHPGFdT8e63o0MCcznaqohMlw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>万科财务状况足以应对市场变化</t>
+          <t>地产大佬忙“圈地”</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -838,32 +834,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2008-10-28</t>
+          <t>2005/12/09</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>万科今日发布三季度业绩报告，其执行副总裁兼新闻发言人肖莉就三季度业绩报告热点话题做出回应。她表示，行业正处于调整期，保有现金用于发展更有利于股东利益。$$顺应时势合理定价$$肖莉表示，10月22日出台房地产业新的宏观调控政策，应该是从整体</t>
+          <t>在宏观调控背景下，许多地区的房地产市场陷入低谷期，然而一些大型地产上市公司却</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltVc5Rm2U1sBrpuqRvvA4moiMS8_f0UQk8aI_rI830PWQqFTB7MROBbTYOZYxURQImdMWp8p0FVqiWYwRfiUDqrjmRkkZxu-Gi_6hkN9WIjCZscUaToVxLz&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph254r7ZJU6FLunqGOqa4zI0FsW8yihfIwMbcYXK1cAPEoHuYPfsy7pZ1udlxa5UlUZcJ2LfeJHqu0WGbRrba4QQKpqJoRWadXflGNQfkcRvIqy-pTGC4ZPnk&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>万科  地产龙头与资本市场共舞</t>
+          <t>频繁短线交易导致巨额成交</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>张翔</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -873,32 +869,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2008-10-21</t>
+          <t>2005/12/07</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1984年是一个特殊年份，如今则被称为“公司元年”，随着中国企业的第一次改制潮，联想、海尔、上海锦江等一大批知名企业，都是在这一年相继诞生。这一年在深圳，一家名为深圳现代科教仪器展销中心的企业悄然问世，这家企业就是万科的前身。当年谁也没有想到，在完成股份</t>
+          <t>小小的权证已经反客为主。昨日6只权证累计成交101.8亿元，高出全部A股总成交额(78.91亿元)29%。这是自8月22日第一只权证宝钢权证上市以来，权证成交额首次超越两市A股。面对疯狂的权证市场，持有权证的主流机构投资者纷纷选择获利离场。$$鞍</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltVc5Rm2U1sBrpuqRvvA4moiMS8_f0UQk8aI_rI830PWQqFTB7MROBborwbX1rlgdOraTjjxrXQx9ezpnjTofgmJKGz8etQIkgrVv7vXfRtcw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph254r7ZJU6FLunqGOqa4zI0FsW8yihfIwMbcYXK1cAPEoHuYPfsy7pZ1ShaV-t3BzHJxjYpLQ4WldiPASd_h1udugG4dpmlCkOmcxW0ZpSMBgVLRWN_ph6rP&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>房地产开发模式酝酿剧变</t>
+          <t>深市权证开局三大看点</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>李宇</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -908,32 +904,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2008-10-13</t>
+          <t>2005/12/05</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>从一线城市逐渐向二线城市蔓延的地产降价潮，不仅仅是地产商回笼现金的“过冬”之举，更预示着行业的未来发展方向：房地产开发将进一步告别“画地为牢、囤地卖楼”的模式，向“不囤地、不捂盘”的快速开发模式转变，其结果是行业集中度的提高。$$多年来，相当多的</t>
+          <t>今日上午九点，钢钒PGP1、万科HRP1、鞍钢JTC1集中上市仪式将在深交所三楼大厅举行，深市权证市场由此拉开大幕。三只权证的发行规模分别为2.33亿份、21.4亿份和1.13亿份，总量达到24.86亿份，接近沪市目前权证总量30亿份的规模。$$</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltVc5Rm2U1sBrpuqRvvA4moiMS8_f0UQk8aI_rI830PWQqFTB7MROBbYUuRhJhI_N3SpyipDpJeOHRMp5N5ZajX39oQ4JxdxES__2a1DNGPrT6Efs7UIV9L&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I8Qy213Vy5cUomka5AX-ld5HrIyw0HNCnvn5bm_2CgE-gxJgMI-rAk2Si7vYUznVEasrkAvqeBbsdqZ5zSO2oEdjKVC4-OqHLH0t_D8VeMyVFOR0QcFXY&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>地产机械行业成焦点</t>
+          <t>深市三权证均存在创设扩容风险</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>李波</t>
+          <t>熊永红</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -943,32 +939,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2008-10-11</t>
+          <t>2005/12/02</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>在本周申银万国、长江证券等42家券商研究机构给出投资评级的个股中，有56只个股被给予了最高的“买入”评级，有30只个股被分析师首次关注，有15只个股的评级被调高，有18只个股的评级被调低。本周地产行业和机械行业的个股受到不少分析师的关注。$$万科</t>
+          <t>新钢钒、万科和鞍钢新轧三家公司股改中派发的权证——钢钒PGP1、万科HRP1、鞍钢JTC1，将于12月5日(下周一)在深交所上市交易。从这三只权证的上市公告书中可知，这三只权证均存在权证创设带来的扩容风险。$$攀枝花钢铁有限责任公司在其认沽权证上</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltVc5Rm2U1sBrpuqRvvA4moiMS8_f0UQk8aI_rI830PWQqFTB7MROBbk9dnq0IQ5i-quduyVpr6TsAhpeaIyLpP68jFuh2rcMVSj-GiEZp-9vAnK2bvyDF-&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I8Qy213Vy5cUomka5AX-ld5HrIyw0HNCnvn5bm_2CgE-gxJgMI-rAf8aqSuGhK_kcHI9z9NG3-xKYgDD7845IQjAEmO3y7HDe9i3qtkzLHdHWsi0SenlY&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>旺季不再  销售不容乐观</t>
+          <t>购并或将成为行情主线索</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>林喆孙晶晶</t>
+          <t>徐国杰</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -978,32 +974,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2008-06-23</t>
+          <t>2005/11/24</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>随着龙头企业1至5月销售数据的相继公布，房地产业今年以来的整体销售状况也渐渐浮出水面。虽然，万科（000002）、保利地产（600048）等企业在今年前5个月的销售金额同比实现增长，但环比增幅趋缓、销售面积下滑却印证了房地产销售整体持续低迷的现实。$$</t>
+          <t>虽然市场不见起色，冲高后阴跌不止，新能源和军工概念的暂时退却让市场仅存的局部投资主题也消失了，但有基金指出，在将实现全流通背景下，收购兼并所体现出的企业价值已成为目前市场行情的线索之一，在不远的将来，很有可能成为市场投资的主要线索之一。$$购并政</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsbRoEiaXjpM7QfQGBx66K-2inT602ixuEc-46Bt69gHbGZ6gE878qV71j6SQlWWy7YPLN6MviNplHqHvrErZMarV7LhI2W8t5hF2J3IsquvlEwSgEQEB-H&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I8Qy213Vy5cUomka5AX-ld5HrIyw0HNCnvn5bm_2CgBrGXkzmmnJ6EUwYxvXdzWoMgzsodGC4qCPBHxtoqGm0uXOd17SQu25pwcfZ52NydCA_1kzVLciA&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>肖莉：房企应坚持稳健经营</t>
+          <t>首家含B股公司股改方案过关</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>林喆</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1013,32 +1009,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2008-04-15</t>
+          <t>2005-11-16</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>万科A(000002)执行副总裁肖莉目前表示，目前行业形势下，房地产企业应强调经营效率、财务安全和稳健经营策略。$$“为防止占压资金、降低周转效率，万科不主张过多的项目资源保有量。”肖莉表示。200</t>
+          <t>作为首家含B股股改公司，万科股权分置改革方案昨日获得现场相关股东会议参会股东100%的支持，综合参与网络投票的股份，以投票总股份17.1627亿股计，赞成率高达95.95%，其中12.8亿多股流通A股的赞成率亦高达94.66%。$$尽管部分与会股</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsbRoEiaXjpM7QfQGBx66K-2inT602ixuEc-46Bt69gHZ0HYFYvrchX2byaACPNDDQCP3hvCJQFSGgBQWg4twwFbvQnSBXxokCTdE_tNtPQGA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I8Qy213Vy5cUomka5AX-ld5HrIyw0HNCnvn5bm_2CgBrGXkzmmnJ6ccBE_oD4pBvmtaWWnUDOSeCd2GGzb6GaQj7IeJ1uwCAMgNLeFynwgg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>中粮地产拟增发收购大股东资产</t>
+          <t>扶持龙头优质公司做大做强</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>夏丽华</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1048,30 +1044,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2008-03-22</t>
+          <t>2005/11/08</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>中粮地产（000031）今日公告，公司与控股股东中粮集团正在积极研究通过定向增发或其他方式，收购中粮集团及其子公司所持万科中粮（苏州）置业有限公司49%的股权等9笔股权的具体操作方案，并开展有关审计评估工作。$$中粮集团拟向公司转让其直接或间接持</t>
+          <t>证监会昨日召集12家上市公司负责人召开了上市公司贯彻落实《关于提高上市公司质量的意见》座谈会。与会人士提出，提高公司运营透明度不仅要对外透明，还要对内透明，要提高资金筹集效率、改善再融资政策，尽快推出股权激励的具体政策和操作细则，扶持行业的龙头优质上市公</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsbRoEiaXjpM7QfQGBx66K-2inT602ixuEc-46Bt69gHaCG8RvOU46fjYAczHvdh5wNylSlYDiYaISYg040JBTn_VRYIA5lmxOE54VUm-1e6g==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I8Qy213Vy5cUomka5AX-ld5HrIyw0HNCnvn5bm_2CgBrGXkzmmnJ6aIL11FoYg2_Oba_Q-d4cUZ1trZAh-WWR2gDo1RQeNAHgSX3cLYQ2scMIl8EaD0ny&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>万科A(000002)盈利能力有保障</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>近三周5亿万科转债选择转股</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>吴铭</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2007-12-05</t>
+          <t>2005/11/02</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>兴业证券分析师指出，万科A目前股价不到08年26倍PE，维持对公司“强烈推荐”的评级。$$在持续的偏空政策以及紧缩的银行贷款双重压力下，公司11月的销售额数据仍然保持强劲的增长态势，并且月度销售单价首次突破1万元，达到10393元每平米，这足以表</t>
+          <t>万科日前公布的三季报显示，在10月10日公布股改方案后的近三周时间里，万科转债转股速度明显加快，目前已有近5亿元转债实施转股，显示调整后的股改方案获得市场普遍认同。$$万科于去年9月24日发行19.9亿元可转换公司债券，即“万科转2”，今年3月2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsbRoEiaXjpM7QfQGBx66K-2inT602ixuEc-46Bt69gHaJOSqc0kWK07jqshV51GqBbUtNxgD1WnpxMmlWVCrUcUOXPi5OyQDriykUbCzkdDg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I8Qy213Vy5cUomka5AX-ld5HrIyw0HNCnvn5bm_2CgBrGXkzmmnJ6pTaTrASaFCGl3sLghfscEw9SeLa62pwzOG8L-WeOT83e8cNUekt65px-3cmbHYBM&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>万科半年销售额逼近去年全年水平</t>
+          <t>万科三季度实现预定增长</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>陈雪;吴铭</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1114,30 +1114,34 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2007-08-28</t>
+          <t>2005/10/31</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>今日公告的万科中报显示，继2006年成为国内首家销售额突破200亿的房地产企业之后，今年上半年万科的销售业绩再次实现了强劲增长，实现销售面积231.2万平方米，同比增长幅度高达89.0%，销售金额174.7亿元，同比增幅高达136.4%，基本每股收益0.</t>
+          <t>万科今日公布的三季报显示，公司第三季度共实现销售收入35.9亿元，营业收入12.2亿元，净利润7674.1万元，结算面积19.8万平方米，分别比去年同期增长58.6%、21.5%、9.1%和4.8%。值得注意的是，在公司10月10日公布股改方案后的近三周</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsbRoEiaXjpM7QfQGBx66K-2inT602ixuEc-46Bt69gHaOQ_LKZyfrsQ7Ez_2xQwFlSf3an49EecvMZ0Do5ciXrah_qM4PGMa6QBkxB2xlF3g==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I8Qy213Vy5cUomka5AX-ld5HrIyw0HNCnvn5bm_2CgO2mX7iKhio4idsT34IZpx1wFlqtiZMRswoWzcQhv7tP5X3865dRaLAJDdSD-joDEN5xP9G84hVL&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>万科A(000002)  受益于规模优势和房价上涨</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>投资评级简报</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>燕云</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1145,32 +1149,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2007-07-18</t>
+          <t>2005/10/20</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>万科既是房地产行业的领跑者，也是资本市场的投资标杆，将成为国内房产行业集中度提高的历史创造者和最大受益者之一。国泰君安张宇、孙建平将公司2007年主营收入和净利润从原预测的280.2亿元和32.8亿元调高到377亿元和50.9亿元。以现有65.5亿股股本</t>
+          <t>同仁堂一年期目标位23.3－26.8元$$中金公司孙雅娜预计在目前股价水平上，考虑10送2.2的对价，公司2005、2006年的市盈率水平分别为23.9倍和19.7倍(预计2005、2006年的每股收益分别为0.70元和0.85元，分别同比增长6</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsbRoEiaXjpM7QfQGBx66K-2inT602ixuEc-46Bt69gHY4R49bsWgfM39kzA7cpYpgnERx9I9AbWyCRJLF4htirxzOSNXmZWW8ZENaU_LS-kg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24ZC4T1DoKWYAbUxEUtaCMM1Mhse646lzSMf3h2uyi4uvFrWNmY-2jKwUQphn0cVBYGwMYJbfxK49O3gXSxNF41gcRUAtGCjQz4CgR0wC_0d0xYl8Yr2MIy&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>万科  地产行业领跑者</t>
+          <t>蓝筹“寻宝”的机会来了</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>陈雪</t>
+          <t>易非</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1180,30 +1184,34 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2007-07-07</t>
+          <t>2005/10/19</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$T‘2006年，被万科(000002)视为标杆的企业，美国最大的房地产商帕尔迪在年报中写道：“漫长的旅程中，我们可能不得不经常调整航行的路线，但我们罗盘所指的方向永不改变。”这句话理应适用于所有的企业。战略会</t>
+          <t>“一些蓝筹近期的急跌也许给市场提供了一个极好的买入机会。”某私募基金人士有些欣喜地表示。在他的眼里，过去几乎处于天价、被基金拿得死死的很多蓝筹股，终于向市场打开了投资的大门。$$蓝筹股近来的灰头土脸，宏观经济对市场整体影响中性偏空是一个重要原因。</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsbRoEiaXjpM7QfQGBx66K-2inT602ixuEc-46Bt69gHY4R49bsWgfMeix2uASsraSA2dZBae-xG5PolVuh0f9RKzc7QLNL3-PoKkBfeUynqA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24ZC4T1DoKWYAbUxEUtaCMM1Mhse646lzSMf3h2uyi4uvFrWNmY-2jKmeAsykok5AYCoB1utaV2xR7iBwAdygbxHciMKTu3EfqbjhRmMs6d1sY2pNRb3lx6&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>万科A(000002)  不断超越发展预期</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>万科做深做透认沽权证</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>吴铭</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1211,32 +1219,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2007-04-09</t>
+          <t>2005-10-19</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>专注于住宅开发的万科，通过外延增长巩固和扩大开发规模和优势，市场份额持续增长，不断超越预期。按照2006年底股本计算，海通证券张峦预计公司2006－2008年的每股收益分别为0.74元、1.13元和1.56元。综合PE、RNAV和PEG估值法，张峦认为万</t>
+          <t>万科(000002)今日公告称，经过与流通A股股东充分沟通，大股东华润股份有限公司提议对股权分置改革方案的部分内容进行调整，将认沽权证的行权价格由3.59元/份调整至3.73元/份，将认沽权证的数量由每10股A股派送7份调整至8份。$$万科股改方</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluARLIIXBwIxK2MCs8KTN7fyspCfkKKE85j5JT4Ns5JrtlHpr9RWLpKKREHXg5_2pVRmjo4xj0f1e2gNAE-lfRxbzxZrtH8FNX7eTJT39gPsA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24ZC4T1DoKWYAbUxEUtaCMM1Mhse646lzSMf3h2uyi4uvFrWNmY-2jKicFsEsRAON1maCJmszg--qDxiezu0KImv66KGGrn5LIHN1y7-8BPCQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>食品饮料成保险机构新宠</t>
+          <t>股改消除发展瓶颈</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>尚晓阳;赵彤刚</t>
+          <t>吴铭;易非</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1246,32 +1254,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2006-11-02</t>
+          <t>2005/10/13</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>三季报中，跻身上市公司前十大流通股股东的保险公司对食品饮料类公司的持仓市值为25亿元，而半年报中的持仓市值仅6600万元。贵州茅台、五粮液、伊利股份市值大幅增长，令保险机构获益匪浅。$$经过了今年二季度的大幅增仓后，A股市场的重要投资机构保险公司</t>
+          <t>万科(000002)及其大股东华润股份昨日在深召开投资者推介会，在介绍股改方案的同时，了解投资者的认识、想法和要求。相互沟通中的华润与机构投资者都展示了对公司长期发展的信心，认同股改消除公司发展瓶颈的积极作用。$$推介会现场的沟通气氛相当热烈，一</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluARLIIXBwIxK2MCs8KTN7fyspCfkKKE85j5JT4Ns5JrrfJvZeQDr5PLDagztfHpsXdVHzCyNRVPOk46ZBgoBWRpoc-9w-7ZoysiqjTx3jsCA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24ZC4T1DoKWYAbUxEUtaCMM1Mhse646lzSMf3h2uyi4uvFrWNmY-2jKql8SJQSF-z_EAsSytjS1jinq2eNIYO3YwFFm1NeSG5EwU-VsMK_mgACtUtZ2Q3wV&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>金融地产股遭遇“空翻多”</t>
+          <t>高对价预期应声落地</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>易非</t>
+          <t>徐建华</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1281,32 +1289,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2006-10-25</t>
+          <t>2005/10/12</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>易方达、银华等22家基金公司的92只基金今日首批公布三季报。天相投资统计数据显示，金融、地产股最受基金青睐。与二季度相比，基金对这两个行业采取了“空翻多”策略，增持相当明显，这种策略最终导致了三季度金融、地产股的大涨。$$从三季度基金的仓位数据来</t>
+          <t>上海永久、万科两只含B股公司率先股改拉开了含B股、H股等特殊公司股改的大幕，全面股改也由此进入攻坚阶段。虽然上海永久10送5的对价水平高于目前股改平均对价水平，但或许是仍低于此前市场预期的原因，本周一非但两市B股因得不到对价的预期得到证实而大幅下跌，A股</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluARLIIXBwIxK2MCs8KTN7fyspCfkKKE85j5JT4Ns5JrvRIKY8n2tAJJ_s5retnvUEuwEju5_PQI8kmewgXCHeieqw7yUOMfbudcY1rOtqA9w==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24ZC4T1DoKWYAbUxEUtaCMM1Mhse646lzSMf3h2uyi4uvFrWNmY-2jKJFOoXslOtirqVUhryOy963PqYAAGf6QVKWVJUKiOrKCSoF5wMGwLC8DXT9XQ7dZL&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>认沽权证持续走弱</t>
+          <t>万科认沽权证是否最佳选择</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>熊永红</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1316,32 +1324,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2006-10-21</t>
+          <t>2005/10/12</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>一如市场所预期，深能JTP1本周连续4日暴跌，周四最终以0.002元的收盘价完成其作为股改权证的使命。深能JTP1回归所带来的风险提示，以及A股大盘的持续强势，使得认沽权证再度迎来普跌局面。$$与前期万科HRP1的末日表现相比，深能JTP1的价值</t>
+          <t>万科A推出的以大股东华润股份向所有流通A股股东派送认沽权证作为对价，并辅以减持承诺的股权分置改革方案，引来市场极大关注，市场分析人士对之褒贬不一:看好者认为，这一对价方案是根据万科的实际情况作出的“最佳”选择，极大地体现了大股东改革的诚意；不看好者表示，</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluARLIIXBwIxK2MCs8KTN7fyspCfkKKE85j5JT4Ns5JrvRIKY8n2tAJRx6TaNQ3y1paJWdq0r6Gyqhg4inJgkf6TiZvgLUuChkjp1Z_mg7QGQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24ZC4T1DoKWYAbUxEUtaCMM1Mhse646lzSMf3h2uyi4uvFrWNmY-2jKDP38MC8e9qBk2AOfZaGEIr1wKHs9Jl8GioJB6V3obVfqUrCKE88eRcA5goDEwpxo&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>地产板块  价值基础开始动摇？</t>
+          <t>B股走势走出结构性机会</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>龙跃</t>
+          <t>李宇</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1351,32 +1359,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2006-09-27</t>
+          <t>2005/10/11</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9、10月份一般是地产行业一年中销售情况最好的时候。然而，就在“金九银十”这样的日子里，本周地产股却开始了调整。周一，G中企、G张江、G实发展等上海本地地产股放量下跌，昨日G万科Ａ、保利地产的跌幅均超过4%。地产股新一轮调整是否开始了？一些分析人士认为，</t>
+          <t>昨日，上海永久和万科两家含B股公司的股改方案成为左右大盘的重要力量。但永久B股和万科B股却呈现迥异走势，市场人士则从B股变局中探出隐藏的结构性机会。$$永久万科表现各异$$永久B昨日开盘停牌一小时，复牌后下探至0.244美元的全日最低点，</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluARLIIXBwIxK2MCs8KTN7fyspCfkKKE85j5JT4Ns5JrnizeZbas-kkm48BTQyV7gNSsX7RbXtxI43iEYYq10EU-EsjvkfaiYvQt64f7a9nXA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26yLIKXySRrVRdTjEFhF9Rr47-H6IvDzaTY7lVfnyPNgVDeadkkzShz9Ad0_RD_1YzBUW_b9Pj-emtlB9G_6gh_eLrpSUZ7xv_1ZX5xSLOsLyzRasy6Nra4&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>股指踏步  地产单飞</t>
+          <t>万科寻求提升股改方案市场认知度</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>王磊</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1386,32 +1394,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2006-09-21</t>
+          <t>2005/10/11</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>继前日的阴十字星后，昨日在5日均线支撑以及地产股的拉动下，沪综指再度收出一颗阴十字星，收盘微跌0.16%而报收于1732.45点，继续表现为相对徘徊的盘整走势。地产股占据较大权重地位的深成指则有0.57%的上涨，收盘点位4247.76点再创本轮反弹收盘新</t>
+          <t>万科(000002)董事兼董事会秘书肖莉昨日在接受记者采访时表示，公司接下来将加大对单纯认沽权证方案的介绍、推广力度。$$尽管此前有几家已推出权证方案，但市场关注点仍在送股上面，导致目前市场对万科单纯权证方案的理解仍不太深。肖莉向记者强调，认沽权</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluARLIIXBwIxK2MCs8KTN7fyspCfkKKE85j5JT4Ns5JrnizeZbas-kkQdjmxHOYcRheXsfuEE3lUkYI3Fbul1_zILNB-iEZD1rhYNvNLhT5xw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26yLIKXySRrVRdTjEFhF9Rr47-H6IvDzaTY7lVfnyPNgVDeadkkzShzspgJHmgenOdA3D4jg1UemuEeCmZA-XaGri0wwkGJ5Godyqpp1LD5GRQ6yTJs07wR&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>房地产整体纳税差强人意</t>
+          <t>投资评级简报</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>曹腾</t>
+          <t>龙跃</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1421,32 +1429,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2006-09-15</t>
+          <t>2005-10-11</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>刚刚出炉的“2005年中国纳税500强”让地产大鳄们稍微舒了一口气。经过合并计算，G万科以13.24亿元的纳税额进入纳税百强，广东碧桂园和SOHO中国北京代表处则分别以2.85亿元和2.84亿元的纳税额，位列490位和494位。而地产行业也以1798亿元</t>
+          <t>万科未来发展值得看好$$国信证券方焱预计，万科2005、2006年EPS分别为0.35元和0.43元，对应2005、2006年动态PE分别为10.83倍和8.81倍，维持对公司“谨慎推荐”的投资评级。方焱指出，公司从2000年开始便着手大举增加土</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluARLIIXBwIxK2MCs8KTN7fyspCfkKKE85j5JT4Ns5JrnizeZbas-kkk_xNDmubdP1RM68xigj8Xn6vMlAxMDbbLMtdZ6E-v91YjvAVp1T-XQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26yLIKXySRrVRdTjEFhF9Rr47-H6IvDzaTY7lVfnyPNgVDeadkkzShzo0wOLv88ai0B-qtejSG-Cxo5KkxeVHElF7I1eioQaMYs7UEiWyAPXA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8%销售净利率下的生存法则</t>
+          <t>含B股上市公司股改破题</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>曹腾</t>
+          <t>孔维纯;吴铭</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1456,32 +1464,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2006-09-13</t>
+          <t>2005/10/10</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>旨在紧缩地根和银根的调控政策密集出台，将对房地产公司的盈利能力产生深刻影响。依靠高财务杠杆和低成本土地的盈利模式将难以为继，房地产企业的核心竞争力将向营运能力倾斜。$$通过对32家样本公司（全年房地产收入占主营收入90%以上的公司）的分析可以看出</t>
+          <t>上海永久(600818)、万科(000002)今日发布股改方案，成为沪深两市首批股改含B股的上市公司。本周，沪深两市有21家公司进入第四批股改程序，19家公布方案。$$从股改公告来看，两家公司均“绝口不提B股”，股改是A股相关股东之间的事，上海</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluARLIIXBwIxK2MCs8KTN7fyspCfkKKE85j5JT4Ns5JrnizeZbas-kkNfTQzMfrNt_8KbpnPEB-wxozfynTaIErEvvJOVYUZA_LMfgJs0oGww==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26yLIKXySRrVRdTjEFhF9Rr47-H6IvDzaTY7lVfnyPNgVDeadkkzShzGD6UZb-LwjStaGgSsGk5IL0wm7h30ISdxDJrIyz9djNsjTzdykdu4bMfgz4E5qwq&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>反弹难持续  新权遭炒作</t>
+          <t>A股股改　不言B股 情法有据</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>程胜</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1491,32 +1499,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2006-09-09</t>
+          <t>2005/10/10</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>在送别了宝钢、万科权证后，权证市场似乎重新恢复了生机。本周权证市场人气明显回升，特别是部分认购权证表现出较强的反弹欲望。不过反弹的持续性并不理想，多数权证冲高回落。$$本周最高涨幅超过18%的权证共有8只（不含新权证），其中认购权证就有6只。首创</t>
+          <t>股改以来，历次公布的公司名单均不见含B股公司踪影，引起了人们的忧虑，甚至担心可能因局部受阻进而拖累股改大计的实施。国庆长假刚过，悬念即得破解。今日，沪市的上海永久、深市的万科公告启动股改，方案毫不拖泥带水，充分表现了“股改为A股市场自家事”的基本原则，也</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltwREe1yJ6gvxNSzGze9rWG5AGal3Ho3J92IwEk_QBiBEBlkXP1Z0PYK570oaonrkvyBTnr_YNQM5cogVrSnaXzClYVlJ70Moioxc1UeIC8kw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26yLIKXySRrVRdTjEFhF9Rr47-H6IvDzaTY7lVfnyPNgVDeadkkzShzU3ZDIanpIk-DWZZOSLxYVcyKXlXp29YlP1cqQyGLT5SC2q0I8KSyU9L3iBAdx7sZ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>权证品种无一下跌</t>
+          <t>第四批上市公司进入股改快车道</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>徐海洋</t>
+          <t>周松林;李宇;吕强</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1526,32 +1534,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2006-09-05</t>
+          <t>2005/10/10</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>万科认股暴跌谢幕的影响似乎正在淡去，昨日沪深两市可交易的25只权证全部上涨，首创认购权证在正股涨停带动下，以32.01%的涨幅封死涨停板，$$事实上，权证市场自上周五便显现出了重新活跃的苗头。在朦胧消息刺激下，上周五包钢认购权证一度上涨28%，尾</t>
+          <t>本周，沪深两市有21家公司进入第四批股改程序。其中，青岛双星、电广传媒今天没有公布股改方案。据本报数据中心统计，从今日公布股改方案的19家公司来看，平均对价水平为每10股送2.97股。其中，上海永久公布了10送5的高对价。2005年半年报显示，这19家公</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltwREe1yJ6gvxNSzGze9rWG5AGal3Ho3J92IwEk_QBiBEBlkXP1Z0PYcY2aXE2uGXCpXl_xDiuvBx3JwvIOoa9yur5a9HZ76O1xN_qQN2v8dA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26yLIKXySRrVRdTjEFhF9Rr47-H6IvDzaTY7lVfnyPNgVDeadkkzShzIR0nJOuRDZK2o8sAPEb7C2iCmJJShJLPOirf6ZfVfC0ImZ7MN36yF8lPNZ_kJc7_&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>房地产企业现身纳税500强</t>
+          <t>华润70亿资金作后盾 万科　10派7份认沽权证</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>陈亮</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1561,32 +1569,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2006-09-04</t>
+          <t>2005-10-10</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>“根据中国税务年鉴的数据，2005年全国房地产行业税收是1798亿元，占到全国总税收的5.8%，这能说明房地产行业是纳税侏儒吗？”在约见《中国证券报》记者时，SOHO中国董事长潘石屹有些不平。$$作为连续三年蝉联“中国十大暴利行业”之首的房地产业</t>
+          <t>万科(000002)今日公布的股改方案为:大股东华润股份向所有流通A股股东按每10股流通A股免费派送7份认沽权证。该权证为百慕大式，存续期为9个月，在存续期最后5个万科A股股票交易日可行权，行权价格3.59元。$$华润股份还特别承诺，其所持有的非</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltwREe1yJ6gvxNSzGze9rWG5AGal3Ho3J92IwEk_QBiBEBlkXP1Z0PYEcoZGKybJloKiWUlpeOsbWj_LQOvMe5Y5tKk8hJ1BOXYWMsKlizWmA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25kD_PfHf0DXxJY6yHjyEhF1P0oF7Unzykt_PcjAgd67lc2ckPSM-d0Wsxj4fQcvfxzpjaI6tdn8BpxH95awoOexDOsxucfTwbRdiiZ6x0gLA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>认沽权证展开价值回归之旅</t>
+          <t>房地产业税收制度变革势在必行</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>徐海洋</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1596,32 +1604,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2006-09-01</t>
+          <t>2005-09-22</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>万科认沽在最后一个交易日暴跌“归零”的前车之鉴，使目前明显溢价的认沽权证走上了价值回归之旅。昨日两市有交易的25只权证仅有3只认购权证上涨，而跌幅前14位的权证全部都是认沽权证。$$自万科认沽权证在最后一个交易日暴跌95%“归零”之后，本周权证市</t>
+          <t>“那个排名应当是不准确的。”提起2004年度中国纳税500强排行榜，不少地产上市公司都感到有些委屈和失望。$$最近一段时间，很多人都在议论，房地产号称“暴利”，可中国纳税500强中的前300名里，没有一家房地产企业入选，成为纳税“侏儒”。有人据此</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltwREe1yJ6gvxNSzGze9rWG5AGal3Ho3J92IwEk_QBiBEBlkXP1Z0PY_T2_9sDjl2BPtfOSf16B1MMEwCAwNroZd7ILZUN16INGMvO5iZedjw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25kD_PfHf0DXxJY6yHjyEhF1P0oF7Unzykt_PcjAgd67uVUFZPopcgn7_9cv5LCG8_8v6CMAyZmfWqR_bCSCvEwdQis-ShTqAdwXwux849qYQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>“迟到”的价值回归</t>
+          <t>万科从容应对行业周期</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>金名</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1631,32 +1639,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2006-08-29</t>
+          <t>2005/08/01</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>一路狂跌95%，万科HRP1终于在其最后一个交易日实现了“迟到”的价值回归。该权证昨日收于0.001元的“清零价”上，成交额创出上市以来的天量，同时其跌幅也实数证券市场罕见。$$万科权证在末日迎来暴跌，这早在市场预料之中。不过，由于短线投机者“刀</t>
+          <t>万科(000002、200002)今日公布的半年报显示，上半年公司实现净利润7.95亿元，较上年同期增长152%，销售面积和销售收入同比增长分别为63.3%和102.8%。万科总经理郁亮在接受记者采访时表示，这一经营成果的取得，主要得益于公司对经营环境变</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltwREe1yJ6gvxNSzGze9rWG5AGal3Ho3J92IwEk_QBiBPMJtJomTV0irfCOui6g9mUGO5e2n6dZ0WLCRparMkXpgL85oNpZCL4qmNHdIUuZDg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25kD_PfHf0DXxJY6yHjyEhF1P0oF7Unzykt_PcjAgd67pDedZmquyl7evsMaMvxkLzOeIIeyXD9_mMilq4TcXhjsLjF042YIcVFRjxs5K4sxjDwcFGJMbrT&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>万科权证迎来最后交易日</t>
+          <t>万科成就源自专业</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>金名</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1666,32 +1674,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2006-08-28</t>
+          <t>2005-06-07</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>万科（000002、200002）今日发布提示性公告，提醒投资者该公司大股东华润股份有限公司发行的存续期9个月的认沽权证“万科HRP1”将于最后交易日8月28日后停止交易，并进入行权期。$$万科HRP1行权将有损失$$公告提示称，该权证具</t>
+          <t>编者按:第七届“中证·亚商中国最具发展力上市公司50强”评选日前圆满落幕。万科、中兴通讯、招商银行等一批优秀上市公司榜上有名。这些公司究竟依靠什么样的核心竞争优势而入选？支撑其未来持续发展的潜在优势又有哪些？带着这些问题，本报记者走访了部分排名靠前的上榜</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltwREe1yJ6gvxNSzGze9rWG5AGal3Ho3J92IwEk_QBiBPMJtJomTV0ibAL2AtJOgsKuBr5erlmxlLyVEVy5J7dbEzKFuRZ8FsWOXNwnVo8r4Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25kD_PfHf0DXxJY6yHjyEhF1P0oF7Unzykt_PcjAgd67ntbqWFNlQfnbAvEtLdqtYRbU-Pk9rqZXhJ96z7_mvB-E3ujR3A5Wc28hqKaFLo4-g==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>宝钢JTB1“末日成仙”</t>
+          <t>“中证·亚商上市公司50强”揭晓</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>李良</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1701,32 +1709,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2006-08-26</t>
+          <t>2005/06/06</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>本周的权证市场让投资者领略了高估权证在到期日纵身一跳的精彩表现。作为第一只到期的股改权证，宝钢JTB1在本周三迎来了最后一个交易日。该权证当日暴跌85.78%，价格从前一日的0.218元直奔0.031元，终于在其使命终结前成为了“仙轮”。$$难兄</t>
+          <t>第七届“中证·亚商中国最具发展力上市公司50强”今日揭晓，万科A等50家公司从沪深两市1476家上市公司中脱颖而出，成为2004年“中证·亚商50强”上市公司。其中，万科A、中兴通讯、招商银行、上海机场、云南白药、长江电力、福耀玻璃、贵州茅台、宝钢股份和</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltwREe1yJ6gvxNSzGze9rWG5AGal3Ho3J92IwEk_QBiBPMJtJomTV0iTj0nROmVuT31WO0zvdsZcMcP5-vbkOJcT-RX06B_UaTtqx3QU75ItA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25kD_PfHf0DXxJY6yHjyEhF1P0oF7Unzykt_PcjAgd67ntbqWFNlQfnDyw1Gb35LqDG5PqANitmT_ajVls1weyX8WQQOvnVOQG-diWTfvh0nu7h8EId4xxg&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>宝钢权证暴跌谢幕</t>
+          <t>宏观调控船到中流 地产巨头各显神通</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>徐建华</t>
+          <t>金名</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1736,32 +1744,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2006-08-24</t>
+          <t>2005/05/25</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>股改以来第一只权证——宝钢认购权证在“末路狂奔”中率先离我们而去，上市一年多，宝钢权证在市场上创了多项纪录和无数“神话”。虽然这些故事会随着宝钢权证的离去逐渐被淡忘，但权证的故事今后依然会继</t>
+          <t>进入２００５年，房地产行业的政策环境愈发严峻起来，政府连续出台房地产调控政策，频度之密、力度之大，显示自２００３年央行１２１号文件以来，房地产行业脖子上的调控“绳索”正越拽越紧。$$从２００４年年报及２００５年一季度报告来看，地产类上市公司对这种环境</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltwREe1yJ6gvxNSzGze9rWG5AGal3Ho3J92IwEk_QBiBPMJtJomTV0ial6GXDEPmn6mGkqviACJxIrsZbmgeeFF3xoN-o2-QkSmdLijd5z22Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25kD_PfHf0DXxJY6yHjyEhF1P0oF7Unzykt_PcjAgd67tEpbE9whL20C_mFJBo6x4UKWcT-7mzGxhMf-8Q63mPICM-mpnOGA66lseQZuOvTfqbre75Ag8nz&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>超跌反弹昙花一现  “末日轮”暴跌不止</t>
+          <t>基金高调扮演“积极投资者”</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>金名</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1771,32 +1779,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2006-08-19</t>
+          <t>2005-05-09</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>8月中下旬的权证，注定是由宝钢JTB1与万科HRP1来唱主角。这两只“末日轮”本周前两个交易日出现了末日狂欢似的反弹行情，不过好景不长，接下来的3个交易日两只权证连续暴跌，全周跌幅分别达到21.6%和40.6%。$$本周前两个交易日的反弹行情由宝</t>
+          <t>4月29日，万科的2004年度股东大会上，针对修订公司章程议案中的一条修改内容，华夏、博时、南方三大基金管理公司联手提出一项修改提案，并最终获得与会大多数股东的认可。$$在此前召开的招商地产股东大会上，来</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltwREe1yJ6gvxNSzGze9rWG5AGal3Ho3J92IwEk_QBiBPMJtJomTV0iVbo8LbpjBPiwTk8gHcve9pCXNwX1UwBytGNN_3mutfVDFwKEJ-a9jw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25kD_PfHf0DXxJY6yHjyEhF1P0oF7Unzykt_PcjAgd67tEpbE9whL20owqKPLnmWdG3ZkEWaHX39qr9Y-mtiqTuWNzj1mHXWBIiyAwZ0_cwbw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>两只“末日轮”暴跌创新低</t>
+          <t>曾昭雄  杨兵兵  双剑合璧  成就优异</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>唐雪来;胡浩;杜书明第二届中国基金业金牛奖评选专家工作小组;第二届中国基金业金牛奖评选专家工作小组</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1806,32 +1814,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2006-08-18</t>
+          <t>2005/04/27</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>继周三转入跌势之后，宝钢JTB1与万科HRP1昨日迎来了更为猛烈的跳水。宝钢暴跌32.34%，创出0.338元新低；而万科HRP1也大跌16.39%，并一度探至0.05元关口。$$宝钢JTB1在本周前两个交易日累计上涨53.37%的疯狂炒作，注定</t>
+          <t>景顺长城基金公司门口的吉祥物牛娃娃造型别致，让人不仅莞尔，这家公司的投资也真的比较“牛”：旗下景系列基金中的优选股票和动力平衡分别以7．63％和6．85％的净值增长率双双获得第二届中国基金业“金牛”奖。在绵绵</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvLKwDWe-KEswAfympJwKym0C3gDfOJ15o02hS10ZDS543eN13UrcRXNYkrNlKh6z77d-2n0zF-f7FxXFs8EJmG4_Po1pXjpMpCa6szVdfIUA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26ewmlr6WfLxrk_7wxiCeGOSBnWu7Z4zP-NSw1HtAA9moV_UbCF6yjAiVg572_jX34XSBBdv7H6mwGa9_uiCgllIOwqzo0fEst94P0E_2KKhnjsEIJsAo9V&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>权证市场全面走弱</t>
+          <t>科学房产观</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>徐海洋</t>
+          <t>陶邀</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1841,32 +1849,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2006-08-17</t>
+          <t>2005/04/23</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>交易所重拳打击违规炒作的举动终于平息了权证市场的恶炒之风。昨日两市可交易的26只权证1涨25跌，内在价值为零的万科认沽权证再度暴跌12.86%，价格跌至0.061元，目前其距离终止交易仅剩8个交易日。$$由于近日两市都出现了针对“末日轮”的疯狂炒</t>
+          <t>说到我国房地产市场，今年以来，政界人士、经济学家和平民百姓几乎无人不关心。不过，不一致的观点太多。经济学界就有两种截然不同的声音，一种认为房地产处在泡沫破裂的前夜，一种认为前者是危言耸听。部分房地产商</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvLKwDWe-KEswAfympJwKym0C3gDfOJ15o02hS10ZDS543eN13UrcRXiyJfakuTs3U7Ez0Dzst_nqr8ENifSLgErcwDXb9Qk6knT7VshMGjUA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26ewmlr6WfLxrk_7wxiCeGOSBnWu7Z4zP-NSw1HtAA9moV_UbCF6yjATS0oe4CAbWBmYQjTQ-vXcWHH9hEHFcxR2zFQv79WziCTCGPAdZVbaKy5apVCGl94&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>深交所重点监控万科权证交易</t>
+          <t>中集集团季报预增400%</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>陶邀</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1876,32 +1884,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2006-08-16</t>
+          <t>2005/04/06</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>深交所将对万科权证实施重点监控和风险控制措施。$$深交所今日就万科权证发布风险提示和“关于加强万科权证交易监控的通知”，提示投资者注意交易风险和持有风险，理性投资。$$8月28日是万科HRP1（038002）的交易截止日，距今仅剩9个交易</t>
+          <t>中集集团（000039、200039）、万科（000002、200002）、金地集团（600383）。赛格三星（000068）等多家公司今日发布了一季度预增公告。$$中集集团预计一季度净利润猛增4倍，万科</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvLKwDWe-KEswAfympJwKym0C3gDfOJ15o02hS10ZDS543eN13UrcRXi14QZAvbAhxe6JlEuBdvF65ClpCNNUoAaiSviXGl81-Ij6EO-5dddQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26ewmlr6WfLxrk_7wxiCeGOSBnWu7Z4zP-NSw1HtAA9moV_UbCF6yjAwor9WM2hDRB_IkVj7ACViXBAZn1hzXyvOE4l2gxOJAn3d8bbZFnt3lu9tXsGFLxZ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>地产股迎来走强契机</t>
+          <t>万科认识到问题就不会有大问题</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>王磊</t>
+          <t>金名</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1911,32 +1919,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2006-08-16</t>
+          <t>2005-03-23</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>引领昨日大盘反弹的主要力量非房地产板块莫属，天相房地产指数以4.76%的涨幅高居行业指数涨幅榜首位，远超位居涨幅第二的酒店旅游指数3.09%的涨幅。分析观点指出，尽管近期人民币汇率波动明显加剧，但人民币的升值趋势确定无疑，房地产板块作为升值受益板块，中长</t>
+          <t>针对央行调整房贷政策，万科（000002、200002）董事长王石、总经理郁亮昨日在2004年业绩发布会上表示，鉴于媒体、投资者和政府都已认识到了房地产市场问题，并正采取抑制措施，政策调整不是“一刀切”的</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvLKwDWe-KEswAfympJwKym0C3gDfOJ15o02hS10ZDS543eN13UrcRX4H4L-NN3frVZfDQC9-hxP_rkPvNVOC8mG7J2Gp3CAsk-RaDk5IIFew==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26ewmlr6WfLxrk_7wxiCeGOSBnWu7Z4zP-NSw1HtAA9mkBcgE38aPNpo3ex8C8t0HW4zyxVBxXk5MKSGsbUIzDm2n2zSRYyKxJxU_9iLUx_nw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>“末日轮”上演末日疯狂</t>
+          <t>万科保持效益型稳步增长</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>金名</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1946,32 +1954,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2006-08-15</t>
+          <t>2005/03/22</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>昨日，上证指数以多达35点的下跌宣告了技术性反弹的结束，使得全体认沽权证从平静中“复活”。认沽权证在机场JTP1与沪场JTP1的带领下全线反弹。而让市场人士意外的是，剩余交易日仅有7天（含今天）的宝钢JTB1竟放量上涨21.63%，在其末日即将到来之际上</t>
+          <t>万科（000002、200002）今日公布的2004年年报显示，该公司去年业绩保持稳步增长，全年结算面积达143．4万平方米，同比增长5．1％；结算毛利率为25．75％，较上年有明显提高；实现营业收入76．67亿元</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvLKwDWe-KEswAfympJwKym0C3gDfOJ15o02hS10ZDS543eN13UrcRXd4lVIPWLuqarIq2zqj5D1snRWI-usjJO-EAAOmCQEDd5Hgrxtm-kTg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26ewmlr6WfLxrk_7wxiCeGOSBnWu7Z4zP-NSw1HtAA9mkBcgE38aPNp-0Cj16HNf1w1BSrPmeo1a3HYJyhRbUGxu-Qs6jQeIZOQV276Y2D_aNUmVGkI1bPf&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>二季度QFII减仓近四成</t>
+          <t>所选股票是目前最好的</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>牛洪军</t>
+          <t>吴育平;徐辉中证咨讯</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1981,32 +1989,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2006-08-14</t>
+          <t>2005-03-10</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>尽管100亿美元的QFII额度即将用完，但数据显示，今年二季度QFII并没有因额度增加而相应增仓，反而在上市公司前十大股东中的持股数量环比整体下降了36.01%。$$整体仓位下降明显$$据本报信息数据中心统计，截至8月11日披露半年报的4</t>
+          <t>从保险机构透露出的选股思路来看，与当年QFII入市相比，并未有特别的新意，但业内普遍认同，保险机构所购买的仍是“最好的股票”。从过去中国A股市场调整的实际看，也只有这类个股才能抵御股指整体下跌的风险。从这</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvLKwDWe-KEswAfympJwKym0C3gDfOJ15o02hS10ZDS543eN13UrcRXV8kamNWtvRB4D_y_-FVl6rBTJrJfiscBKc_mrHW2Jfj-wj_DEck5cQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26ewmlr6WfLxrk_7wxiCeGOSBnWu7Z4zP-NSw1HtAA9mkBcgE38aPNp3ueuQ-o5VDOspSUCnbofH6tObpCrWWHRZsJdcmAwgenxSoMjEWtfZA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>“末日轮”继续跳水</t>
+          <t>上市公司争“到上游去”</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>翟超</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2016,32 +2024,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2006-08-12</t>
+          <t>2005/03/08</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>继上周以30%以上的跌幅领跌权证板块之后，宝钢JTB1与万科HRP1本周继续以大幅跳水的方式奔向即将到达的“终点”。这两只权证分别下跌19.46%、28.89%，其中万科HRP1的价格仅有0.064元。$$除两只“末日轮”外，其它25只权证本周基</t>
+          <t>俗话说：“手里有粮，心中不慌”。$$面对煤、电、石油等原材料价格的不断上涨和土地管理制度的日益紧缩，上市公司各显其能，主动出击，纷纷涌向“上游”。$$万科A于3月5日发布公告称，公司下属上</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvLKwDWe-KEswAfympJwKym0C3gDfOJ15o02hS10ZDS543eN13UrcRXQzkRD7SjQfgV0MXt9rwUJExR0UlYiwH0KHXNDBl4pzghP1vSxOtbpA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph270IdSve76Xun_zq84eXGezojdcfgZ_G6_NUJo6J4HaJbhIAgR8NOGXHX5lIpuKS8zrkc5P7ky26HzW_yhM4vcLDhdZ3zhzJJqJyfHOK6IiOAdywr5TF70k&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>券商创设权证何去何从</t>
+          <t>万科揭开地产业并购整合大幕</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>徐建华</t>
+          <t>陈雪</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2051,32 +2059,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2006-08-11</t>
+          <t>2005-03-07</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>随着宝钢JTB1和万科HRP1到期日的逼近，暴跌成了这两只权证近期最为常见的走势。虽然从绝对价格来看，万科HRP1已不足1毛，宝钢JTB1的价格也一再创出历史新低，但由于目前两只权证内在价值都为</t>
+          <t>独家专访$$“牛奶＋花生”营养与美味的整合$$──万科总经理郁亮谈巨资受让南都资产$$澳门有一种糖，名字叫“纽结糖”，它融合了牛奶与花生，并把它们各自的营养与美味</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvLKwDWe-KEswAfympJwKym0C3gDfOJ15o02hS10ZDS543eN13UrcRXWiFWPSJ5x7pQyJtRlUrvlHzhlOqSQE880Syb3hGHCzXng5s9klUBdA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph270IdSve76Xun_zq84eXGezojdcfgZ_G6_NUJo6J4HaJbhIAgR8NOGXBoms2BEvC1nEdNSWuDJ4Flt_ohb9TjkJXjRRljiJNvu-HflLoZIQLg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>地产调控下的新商业模式</t>
+          <t>万科收购南都  强化长三角布局</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>陈雪</t>
+          <t>吴铭;陈雪</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2086,27 +2094,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2006-08-07</t>
+          <t>2005/03/05</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>万科全面收购浙江南都是预料之中的事，不同寻常的是，总经理郁亮在新闻发布会上反复强调了这样一个词：资源整合。$$记者注意到，尽管万科早在2004年就作出判断，行业资源整合将是中国地产未来10年最显著的趋势之一，并依此制定了新10年发展策略，然而资源</t>
+          <t>本报昨天刊发的《万科：绣球谁给靓女怎娶》一文所做判断今日得到证实。万科（000002）发布公告称，该公司下属上海公司、浦东公司、深圳公司，于2005年3月3日与南都集团下属的上海中桥基建公司签署协议，万</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvLKwDWe-KEswAfympJwKym0C3gDfOJ15o02hS10ZDS543eN13UrcRXAln0VsV1kNgLCqtpOHu2J7Ern4ytBGVapHz22cN6QnE46H19DNjxNQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph270IdSve76Xun_zq84eXGezojdcfgZ_G6_NUJo6J4HaJbhIAgR8NOGXZzXN7OQQV7nBhvahk9_nDZ7-f3MuFpnVY_tPoCdhJ2Vf5-O18bKo7bN2DoR_bydu&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>万科全面控股南都</t>
+          <t>万科：绣球谁给  靓女怎娶</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2121,32 +2129,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2006-08-07</t>
+          <t>2005/03/04</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>G万科（000002）的扩张步伐正在加快，继上半年成功整合北京朝开中心后，万科再下一城。昨天，该公司总经理郁亮在杭州正式对外宣布，将全面控股浙江南都房产集团公司，并由此开启万科以资源整合的新商业模式实现快速发展的新纪元。$$据悉，万科及附属上海万</t>
+          <t>昨天，万科（000002）主动申请交易停牌，称该公司将签署资产受让协议，并于3月5日就具体事宜进行披露，但公告并未涉及具体交易对象及交易方式。此前，外界曾对此做出种种猜测，截至目前均未获得证实，市场正静待</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltnFbjZCB54OiQy7fCKuagiWPolMzEBReZILPkM_5P_Am-b7yBFT9mam6XlIRpStnjXasCImmjH_crE9onxUkzYsqjkSCbur_ry2UKdp742Lg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph270IdSve76Xun_zq84eXGezojdcfgZ_G6_NUJo6J4HaJbhIAgR8NOGXUdCMxgJPou3DcHrTeJzcc6oZ2dDkZDmaH7KOxUST3Mt9c1wXfi0DWKme-SzVu0Qf&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>风险释放  “仙轮”现身</t>
+          <t>地产股  盲目恐慌不可取</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>龙跃</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2156,32 +2164,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2006-08-05</t>
+          <t>2005/03/01</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>由于宝钢JTB1与万科HRP1都将在本月迎来最后一个交易日，这两只权证本周以超过30%的跌幅拉开了“到期风险”急剧释放的序幕。特别是万科HRP1，本周一举跌破0.1元大关，收于0.09元，成为我国新权证市场的首只“仙轮”。$$在上述两只权证“末路</t>
+          <t>一方面是不断上涨的房价以及房地产上市公司异常出色的业绩，另一方面是对行业周期是否见顶的讨论和对宏观调控的恐惧，最近一段时间以来，面对两市地产股的上涨，很多投资者都陷入了进退两难的境地。而昨日金地集团、万科</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltnFbjZCB54OiQy7fCKuagiWPolMzEBReZILPkM_5P_Am-b7yBFT9maVX7yHa99AlcPenVfDC4coydDvsb4_o8dXfjDQZw_0CxHpn5xhIb4mw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph270IdSve76Xun_zq84eXGezojdcfgZ_G6_NUJo6J4HaJbhIAgR8NOGXgqheI1LDoKZ6kkvvZk4wai8Uo2nHeqcPVM662UBhIAc8244BVsJltH9o8tUX-Wil&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>权证炒作来去匆匆</t>
+          <t>万科：B股赶超A股？</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>赵彤刚</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2191,20 +2199,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2006-07-22</t>
+          <t>2005/01/28</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>本轮以认沽权证炒作为主的权证行情发动于上周四，而目前来看这场纯属投机的炒作游戏已进入尾声。经历了周四、周五的整体回落，多数权证跌幅颇深，像万科HRP1、钾肥JTP1、茅台JCP1等权证已基本回归至反弹前的价位。一旦正股出现类似G钾肥这样的强劲反弹走势，众</t>
+          <t>在降税利好也未能扭转股市颓势的情况下，持有万科B股（200002）的投资者却有理由偷着乐。万科B股近日不仅创出除权以来的新高5．08港元（以1港币兑换1．06元人民币计算，相当于人民币5．38元），而且正一步步向万</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltnFbjZCB54OiQy7fCKuagiWPolMzEBReZILPkM_5P_Ajz0nfJ86cmBQdk58gLBWUqrYoWdJ9L-TnkI6Ln-sh1JEuoJJXWPjVeY4WSmiuhkvQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph270IdSve76Xun_zq84eXGezojdcfgZ_G6_NUJo6J4HaJV9HYusQsJhYCBQKlm2HU6YEHIMZa7q99vephYepY8lOLrCqaGYvvPUPlc8aF6FCefwlUDpq-gUC&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
